--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsamak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCD026E-9204-4A59-BF2E-F12FF1A57DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF18D3-E8AB-4EC3-8F49-A0C7AFD5D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t>Chassis</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VEHICLE BOM</t>
+  </si>
+  <si>
+    <t>INFRASTRUCTURE BOM</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
@@ -616,6 +622,9 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -901,11 +910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,77 +929,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.29</v>
+        <v>99</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="5">
-        <v>12.99</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,39 +998,39 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E5" s="5">
-        <v>0.99</v>
+        <v>1.29</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5">
-        <v>9.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="5">
-        <v>0.09</v>
+        <v>0.99</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
@@ -1047,10 +1047,10 @@
         <v>0.09</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G7" s="5">
-        <v>10.19</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,19 +1058,19 @@
         <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="5">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8" s="5">
-        <v>8.99</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,19 +1078,19 @@
         <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5">
-        <v>7.49</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,19 +1098,19 @@
         <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="5">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5">
-        <v>8.99</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,16 +1118,16 @@
         <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G11" s="5">
         <v>8.99</v>
@@ -1138,19 +1138,19 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="5">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12" s="5">
-        <v>8.49</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,19 +1158,19 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="5">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>9.99</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1178,39 +1178,39 @@
         <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="5">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
-        <v>9.49</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="5">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="G15" s="5">
-        <v>8.49</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1218,19 +1218,19 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="5">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G16" s="5">
-        <v>4.51</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,19 +1238,19 @@
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>6.06</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,259 +1258,259 @@
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5">
-        <v>8.06</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>61</v>
+        <v>111</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.08</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>61</v>
+      <c r="G19" s="5">
+        <v>8.06</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>9.99</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>9.99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.99</v>
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5">
-        <v>3.99</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="5">
         <v>1.59</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
         <v>7.99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>74.989999999999995</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E26" s="5">
-        <v>9.68</v>
+        <v>37.5</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>9.68</v>
+        <v>74.989999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="5">
-        <v>5.49</v>
+        <v>9.68</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" s="5">
-        <v>5.49</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E28" s="5">
-        <v>2.33</v>
+        <v>5.49</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>13.98</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E29" s="5">
-        <v>10.58</v>
+        <v>2.33</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="5">
-        <v>10.58</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="E30" s="5">
-        <v>7.8</v>
+        <v>10.58</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" s="5">
-        <v>7.8</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1518,250 +1518,247 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E31" s="5">
-        <v>6.99</v>
+        <v>7.8</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>6.99</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E32" s="5">
-        <v>1.49</v>
+        <v>6.99</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="5">
-        <v>14.9</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="5">
-        <v>7.98</v>
+        <v>1.49</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>7.98</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="5">
-        <v>1.49</v>
+        <v>7.98</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>8.99</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E35" s="5">
-        <v>4.97</v>
+        <v>1.49</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" s="5">
-        <v>4.97</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E36" s="5">
-        <v>0.15</v>
+        <v>4.97</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="5">
-        <v>8.98</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="5">
-        <v>11.99</v>
+        <v>0.15</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5">
-        <v>11.99</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="5">
-        <v>6.98</v>
+        <v>11.99</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="5">
-        <v>27.92</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="5">
-        <v>6.49</v>
+        <v>6.98</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" s="5">
-        <v>6.49</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <v>6.9</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
         <v>6.9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -1784,13 +1781,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
         <v>61</v>
@@ -1799,7 +1796,7 @@
         <v>61</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>61</v>
@@ -1807,22 +1804,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>61</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>61</v>
@@ -1830,158 +1827,158 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="5">
-        <v>15.99</v>
+        <v>99</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="5">
-        <v>15.99</v>
+      <c r="G46" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="5">
-        <v>99</v>
+        <v>15.99</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" s="5">
-        <v>99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="5">
+        <v>99</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>25</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="5">
-        <v>149</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="5">
-        <v>149</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="5">
+        <v>149</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="5">
         <v>6.66</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>61</v>
@@ -1998,13 +1995,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
         <v>61</v>
@@ -2013,7 +2010,7 @@
         <v>61</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>61</v>
@@ -2021,203 +2018,225 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>71</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="5">
         <v>9.99</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
         <v>9.99</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" s="5">
-        <v>29.6</v>
-      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E59" s="5">
-        <v>7.99</v>
+        <v>7.4</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59" s="7">
-        <v>31.96</v>
+      <c r="G59" s="5">
+        <v>29.6</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="5">
+        <v>7.99</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="7">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>13</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="D61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="5">
         <v>7.49</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
         <v>14.99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>145</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>147</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="D63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="5">
         <v>0.11</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
         <v>12.99</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+      <c r="F64" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G63" s="9">
-        <f>SUM(G1:G62)</f>
+      <c r="G64" s="9">
+        <f>SUM(G2:G63)</f>
         <v>814.82000000000028</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D47" r:id="rId1" xr:uid="{56F30C84-B7F1-4E93-85C2-BCDAAF4AC8FA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{833FA79C-FF8C-49CA-9C3C-C84E7920C278}"/>
-    <hyperlink ref="D22" r:id="rId3" xr:uid="{D1F9A46B-B932-4647-A802-98FAF440E340}"/>
-    <hyperlink ref="D58" r:id="rId4" xr:uid="{311862CC-D628-4230-95F2-0AD129405A1B}"/>
-    <hyperlink ref="D29" r:id="rId5" xr:uid="{500A9AF9-6F5A-4E53-8950-9555CDA2DD1B}"/>
-    <hyperlink ref="D28" r:id="rId6" xr:uid="{4995D576-88B2-47BB-A204-3A4BA58449D7}"/>
-    <hyperlink ref="D50" r:id="rId7" xr:uid="{80EAF517-4FA3-4796-B7B5-E304727AD4B7}"/>
-    <hyperlink ref="D31" r:id="rId8" xr:uid="{D2090449-B071-49E3-BCA5-4E883FFA1893}"/>
-    <hyperlink ref="D48" r:id="rId9" xr:uid="{934B2814-C982-4A37-8EB7-3149DA02AB4A}"/>
-    <hyperlink ref="D46" r:id="rId10" xr:uid="{772B924D-F3CA-48B0-A184-2BE0D9168509}"/>
-    <hyperlink ref="D51" r:id="rId11" xr:uid="{E0BDA47D-0467-49BA-B471-8569E4DB280B}"/>
-    <hyperlink ref="D56" r:id="rId12" xr:uid="{C3F589CA-9864-42BF-8A72-F0F776AFFA73}"/>
-    <hyperlink ref="D60" r:id="rId13" xr:uid="{115787DF-500F-4A0A-90DA-384D52AD7F1C}"/>
-    <hyperlink ref="D62" r:id="rId14" xr:uid="{009B8703-020F-42B3-A357-ACD9F94CD489}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{B5CC75A9-8BC5-4E25-A43E-AAC406F70B8C}"/>
-    <hyperlink ref="D5" r:id="rId16" xr:uid="{2F9DD378-2596-4D95-8A73-ED254713124F}"/>
-    <hyperlink ref="D8" r:id="rId17" xr:uid="{2E26C1E3-2A64-4AE2-ACCE-8089FA51B6FA}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{B53AD56D-E313-45AB-A91B-027CD35F46D3}"/>
-    <hyperlink ref="D6" r:id="rId19" xr:uid="{8DA05457-00D1-4A01-87BE-11AD6F1E8358}"/>
-    <hyperlink ref="D9" r:id="rId20" xr:uid="{D5679FC0-7C11-472C-A56D-80FE6B93B020}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{6D01997C-7FC0-49CE-8DD5-4FC0BBB61DEA}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{C3516DBB-FAFC-4CB3-9C65-4F9E9AD88D03}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{A6B1AE11-46DC-44FC-959A-384F33E88542}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{D6C8E140-3194-44FE-9E53-68703D635837}"/>
-    <hyperlink ref="D17" r:id="rId25" xr:uid="{2E15BB47-0993-4124-866C-447418C26349}"/>
-    <hyperlink ref="D15" r:id="rId26" xr:uid="{4AE9D6FD-C14A-401B-B842-AEB3CB03D253}"/>
-    <hyperlink ref="D16" r:id="rId27" xr:uid="{A48A8E79-594B-4DE4-8B44-7B3D2EAADF1A}"/>
-    <hyperlink ref="D14" r:id="rId28" xr:uid="{9790563B-995E-4F4F-8AA7-36CD4499DC9B}"/>
-    <hyperlink ref="D18" r:id="rId29" xr:uid="{6F41D971-77C7-4753-8879-4A850DC24509}"/>
-    <hyperlink ref="D20" r:id="rId30" xr:uid="{1FAFA2B3-6BC3-45CF-9A29-A46F32CC8C95}"/>
-    <hyperlink ref="D23" r:id="rId31" xr:uid="{E7E20A66-A3F3-48F2-B863-91803FF02EB6}"/>
-    <hyperlink ref="D25" r:id="rId32" xr:uid="{3FE1C066-A4D7-4AD4-B6A5-8DBF3D0AF098}"/>
-    <hyperlink ref="D26" r:id="rId33" xr:uid="{C5390364-008B-482B-A950-75D2FB2B21F7}"/>
-    <hyperlink ref="D27" r:id="rId34" xr:uid="{51B85A43-42B3-423D-89B3-96A4A2D431D2}"/>
-    <hyperlink ref="D32" r:id="rId35" xr:uid="{B9E80FDD-0004-4858-8AC4-B0057114F475}"/>
-    <hyperlink ref="D34" r:id="rId36" xr:uid="{84BF954C-726D-46FD-94A7-789D68AB1876}"/>
-    <hyperlink ref="D36" r:id="rId37" xr:uid="{4C31A88E-A6E3-4761-9918-2C625CFC8210}"/>
-    <hyperlink ref="D40" r:id="rId38" xr:uid="{F3335AA7-F52D-48C5-B033-C1673B8766CD}"/>
-    <hyperlink ref="D33" r:id="rId39" xr:uid="{A3B67F5D-DB74-4EB0-B045-6507BA5F6B50}"/>
-    <hyperlink ref="D37" r:id="rId40" xr:uid="{5461B9DD-BBC5-4D21-BCCF-3FEFBB571BA2}"/>
-    <hyperlink ref="D38" r:id="rId41" xr:uid="{954AB715-AED9-48A6-88C4-330336FAD839}"/>
-    <hyperlink ref="D39" r:id="rId42" xr:uid="{FBED46EC-5C87-47CA-885B-AADCCF90FCBF}"/>
-    <hyperlink ref="D35" r:id="rId43" xr:uid="{4C98FDB6-268E-4D57-BCEE-E8D37020E636}"/>
-    <hyperlink ref="D30" r:id="rId44" xr:uid="{38C41AEE-FBC8-4AC1-88B8-93BDDC6413AC}"/>
-    <hyperlink ref="D59" r:id="rId45" xr:uid="{937019C6-AB5B-4941-BEEA-EC82790E3175}"/>
-    <hyperlink ref="D45" r:id="rId46" xr:uid="{3563BC31-6C00-4D73-8D90-D8B33820718A}"/>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{56F30C84-B7F1-4E93-85C2-BCDAAF4AC8FA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{833FA79C-FF8C-49CA-9C3C-C84E7920C278}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{D1F9A46B-B932-4647-A802-98FAF440E340}"/>
+    <hyperlink ref="D59" r:id="rId4" xr:uid="{311862CC-D628-4230-95F2-0AD129405A1B}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{500A9AF9-6F5A-4E53-8950-9555CDA2DD1B}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{4995D576-88B2-47BB-A204-3A4BA58449D7}"/>
+    <hyperlink ref="D51" r:id="rId7" xr:uid="{80EAF517-4FA3-4796-B7B5-E304727AD4B7}"/>
+    <hyperlink ref="D32" r:id="rId8" xr:uid="{D2090449-B071-49E3-BCA5-4E883FFA1893}"/>
+    <hyperlink ref="D49" r:id="rId9" xr:uid="{934B2814-C982-4A37-8EB7-3149DA02AB4A}"/>
+    <hyperlink ref="D47" r:id="rId10" xr:uid="{772B924D-F3CA-48B0-A184-2BE0D9168509}"/>
+    <hyperlink ref="D52" r:id="rId11" xr:uid="{E0BDA47D-0467-49BA-B471-8569E4DB280B}"/>
+    <hyperlink ref="D57" r:id="rId12" xr:uid="{C3F589CA-9864-42BF-8A72-F0F776AFFA73}"/>
+    <hyperlink ref="D61" r:id="rId13" xr:uid="{115787DF-500F-4A0A-90DA-384D52AD7F1C}"/>
+    <hyperlink ref="D63" r:id="rId14" xr:uid="{009B8703-020F-42B3-A357-ACD9F94CD489}"/>
+    <hyperlink ref="D5" r:id="rId15" xr:uid="{B5CC75A9-8BC5-4E25-A43E-AAC406F70B8C}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{2F9DD378-2596-4D95-8A73-ED254713124F}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{2E26C1E3-2A64-4AE2-ACCE-8089FA51B6FA}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{B53AD56D-E313-45AB-A91B-027CD35F46D3}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{8DA05457-00D1-4A01-87BE-11AD6F1E8358}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{D5679FC0-7C11-472C-A56D-80FE6B93B020}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{6D01997C-7FC0-49CE-8DD5-4FC0BBB61DEA}"/>
+    <hyperlink ref="D12" r:id="rId22" xr:uid="{C3516DBB-FAFC-4CB3-9C65-4F9E9AD88D03}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{A6B1AE11-46DC-44FC-959A-384F33E88542}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{D6C8E140-3194-44FE-9E53-68703D635837}"/>
+    <hyperlink ref="D18" r:id="rId25" xr:uid="{2E15BB47-0993-4124-866C-447418C26349}"/>
+    <hyperlink ref="D16" r:id="rId26" xr:uid="{4AE9D6FD-C14A-401B-B842-AEB3CB03D253}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{A48A8E79-594B-4DE4-8B44-7B3D2EAADF1A}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{9790563B-995E-4F4F-8AA7-36CD4499DC9B}"/>
+    <hyperlink ref="D19" r:id="rId29" xr:uid="{6F41D971-77C7-4753-8879-4A850DC24509}"/>
+    <hyperlink ref="D21" r:id="rId30" xr:uid="{1FAFA2B3-6BC3-45CF-9A29-A46F32CC8C95}"/>
+    <hyperlink ref="D24" r:id="rId31" xr:uid="{E7E20A66-A3F3-48F2-B863-91803FF02EB6}"/>
+    <hyperlink ref="D26" r:id="rId32" xr:uid="{3FE1C066-A4D7-4AD4-B6A5-8DBF3D0AF098}"/>
+    <hyperlink ref="D27" r:id="rId33" xr:uid="{C5390364-008B-482B-A950-75D2FB2B21F7}"/>
+    <hyperlink ref="D28" r:id="rId34" xr:uid="{51B85A43-42B3-423D-89B3-96A4A2D431D2}"/>
+    <hyperlink ref="D33" r:id="rId35" xr:uid="{B9E80FDD-0004-4858-8AC4-B0057114F475}"/>
+    <hyperlink ref="D35" r:id="rId36" xr:uid="{84BF954C-726D-46FD-94A7-789D68AB1876}"/>
+    <hyperlink ref="D37" r:id="rId37" xr:uid="{4C31A88E-A6E3-4761-9918-2C625CFC8210}"/>
+    <hyperlink ref="D41" r:id="rId38" xr:uid="{F3335AA7-F52D-48C5-B033-C1673B8766CD}"/>
+    <hyperlink ref="D34" r:id="rId39" xr:uid="{A3B67F5D-DB74-4EB0-B045-6507BA5F6B50}"/>
+    <hyperlink ref="D38" r:id="rId40" xr:uid="{5461B9DD-BBC5-4D21-BCCF-3FEFBB571BA2}"/>
+    <hyperlink ref="D39" r:id="rId41" xr:uid="{954AB715-AED9-48A6-88C4-330336FAD839}"/>
+    <hyperlink ref="D40" r:id="rId42" xr:uid="{FBED46EC-5C87-47CA-885B-AADCCF90FCBF}"/>
+    <hyperlink ref="D36" r:id="rId43" xr:uid="{4C98FDB6-268E-4D57-BCEE-E8D37020E636}"/>
+    <hyperlink ref="D31" r:id="rId44" xr:uid="{38C41AEE-FBC8-4AC1-88B8-93BDDC6413AC}"/>
+    <hyperlink ref="D60" r:id="rId45" xr:uid="{937019C6-AB5B-4941-BEEA-EC82790E3175}"/>
+    <hyperlink ref="D46" r:id="rId46" xr:uid="{3563BC31-6C00-4D73-8D90-D8B33820718A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId47"/>
@@ -2226,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4757F-091B-44B9-BD90-495A1AFC14CD}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,190 +2264,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="5">
         <v>28.91</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>115.64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10.99</v>
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
-        <v>10.99</v>
+      <c r="G6" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10.99</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11"/>
+      <c r="F11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="9">
-        <f>SUM(G1:G9)</f>
+      <c r="G11" s="9">
+        <f>SUM(G2:G10)</f>
         <v>126.63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{DF4D9567-75C0-4C31-98E0-31FD7D36D1F9}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{A6F4D0A0-CD28-42B5-A330-8B6BC89FB531}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{B5A10B54-2B60-4E5C-B11E-121795779300}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{31E59306-609B-4366-BA9E-6980FCFE4709}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{DF4D9567-75C0-4C31-98E0-31FD7D36D1F9}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A6F4D0A0-CD28-42B5-A330-8B6BC89FB531}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{B5A10B54-2B60-4E5C-B11E-121795779300}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{31E59306-609B-4366-BA9E-6980FCFE4709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>

--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsamak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AF18D3-E8AB-4EC3-8F49-A0C7AFD5D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05063A2-5D64-4358-83B8-648C1F38C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vehicle" sheetId="1" r:id="rId1"/>
-    <sheet name="Infrastructure" sheetId="3" r:id="rId2"/>
+    <sheet name="Nigel (4WD4WS)" sheetId="4" r:id="rId1"/>
+    <sheet name="Nigel (AS)" sheetId="1" r:id="rId2"/>
+    <sheet name="Infrastructure" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="199">
   <si>
     <t>Chassis</t>
   </si>
@@ -123,9 +124,6 @@
     <t>LEDs</t>
   </si>
   <si>
-    <t>Plastic Spacer</t>
-  </si>
-  <si>
     <t>M4X5 spacers</t>
   </si>
   <si>
@@ -246,9 +244,6 @@
     <t>LIDAR cable</t>
   </si>
   <si>
-    <t>Camera cables</t>
-  </si>
-  <si>
     <t>MCU cable</t>
   </si>
   <si>
@@ -327,9 +322,6 @@
     <t>I-configuration better for RW</t>
   </si>
   <si>
-    <t>MG-configuration better for RW</t>
-  </si>
-  <si>
     <t>L-configuration better for FW</t>
   </si>
   <si>
@@ -387,15 +379,6 @@
     <t>12A DC-DC CC CV buck converter</t>
   </si>
   <si>
-    <t>Header Pins</t>
-  </si>
-  <si>
-    <t>Header Wires</t>
-  </si>
-  <si>
-    <t>Wire Sleeve</t>
-  </si>
-  <si>
     <t>M-M, F-F, M-F header wires</t>
   </si>
   <si>
@@ -486,18 +469,181 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>VEHICLE BOM</t>
-  </si>
-  <si>
     <t>INFRASTRUCTURE BOM</t>
+  </si>
+  <si>
+    <t>PCB source files</t>
+  </si>
+  <si>
+    <t>Metal gear</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>12 mm passive buzzer</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>RobotShop</t>
+  </si>
+  <si>
+    <t>L-configuration</t>
+  </si>
+  <si>
+    <t>Optional (if required by Jetson Nano)</t>
+  </si>
+  <si>
+    <t>HDMI emulator plug</t>
+  </si>
+  <si>
+    <t>HDMI emulator</t>
+  </si>
+  <si>
+    <t>DisplayPort emulator plug</t>
+  </si>
+  <si>
+    <t>DP emulator</t>
+  </si>
+  <si>
+    <t>Optional (if Jetson Nano does not come with a WiFi card)</t>
+  </si>
+  <si>
+    <t>USB Type-A to USB Type-B cable</t>
+  </si>
+  <si>
+    <t>Required for Jetson Orin Nano</t>
+  </si>
+  <si>
+    <t>22-15 pin camera serial interface (CSI) cable</t>
+  </si>
+  <si>
+    <t>Soldered version</t>
+  </si>
+  <si>
+    <t>Arduino Mega 2560 Rev.3 development board</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>Alexnld</t>
+  </si>
+  <si>
+    <t>Unsoldered version</t>
+  </si>
+  <si>
+    <t>NVIDIA Jetson Orin Nano Developer Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jetson Orin Nano</t>
+  </si>
+  <si>
+    <t>Intel RealSense T265 Tracking Camera</t>
+  </si>
+  <si>
+    <t>Tracking camera</t>
+  </si>
+  <si>
+    <t>Intel RealSense D435i Depth Camera</t>
+  </si>
+  <si>
+    <t>RGB-D camera</t>
+  </si>
+  <si>
+    <t>RGB cameras</t>
+  </si>
+  <si>
+    <t>Optional (if motion capture system is available)</t>
+  </si>
+  <si>
+    <t>Retroreflective marker</t>
+  </si>
+  <si>
+    <t>KY-037 microphone module</t>
+  </si>
+  <si>
+    <t>Microphone</t>
+  </si>
+  <si>
+    <t>2 pin 5.08 mm pitch screw terminal block</t>
+  </si>
+  <si>
+    <t>DKRed</t>
+  </si>
+  <si>
+    <t>Custom PCB</t>
+  </si>
+  <si>
+    <t>Auxilliary Board PCB</t>
+  </si>
+  <si>
+    <t>Small PCB footprint</t>
+  </si>
+  <si>
+    <t>12V 1.2A Dual TB6612FNG motor driver</t>
+  </si>
+  <si>
+    <t>12V 10A M22 ring light push button (blue)</t>
+  </si>
+  <si>
+    <t>20x20 mm stainless steel L-bracket</t>
+  </si>
+  <si>
+    <t>L-Bracket</t>
+  </si>
+  <si>
+    <t>M2X25 bolts</t>
+  </si>
+  <si>
+    <t>M3×40 (M-F) standoffs</t>
+  </si>
+  <si>
+    <t>M3×20 (M-F) standoffs</t>
+  </si>
+  <si>
+    <t>M3×15 (F-F) standoffs</t>
+  </si>
+  <si>
+    <t>Houston Acrylic</t>
+  </si>
+  <si>
+    <t>Chassis cutouts source files (laser cutting)</t>
+  </si>
+  <si>
+    <t>24"x24", 1/8" thick acrylic sheet</t>
+  </si>
+  <si>
+    <t>Header pins</t>
+  </si>
+  <si>
+    <t>Header wires</t>
+  </si>
+  <si>
+    <t>Wire sleeve</t>
+  </si>
+  <si>
+    <t>Plastic spacer</t>
+  </si>
+  <si>
+    <t>CSI cables</t>
+  </si>
+  <si>
+    <t>NIGEL (4WD4WS) BOM</t>
+  </si>
+  <si>
+    <t>NIGEL (AS) BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -578,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -601,6 +747,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -610,21 +892,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -909,1286 +1226,3187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB4CDC-7893-443C-9B38-EB7EA882FA54}">
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="47.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="13">
+        <v>20.99</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" ref="G4:G23" si="0">PRODUCT(E4:F4)</f>
+        <v>20.99</v>
+      </c>
+      <c r="H4" s="32">
+        <v>20.99</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="H5" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="32">
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H7" s="32">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="H8" s="32">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="H9" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="H10" s="32">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>1.44</v>
+      </c>
+      <c r="H11" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="H12" s="32">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H13" s="32">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H14" s="32">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="H15" s="32">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F16">
+        <v>38</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+      <c r="H16" s="32">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H17" s="32">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="H18" s="32">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
+        <v>2.64</v>
+      </c>
+      <c r="H19" s="32">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="13">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="H20" s="32">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="32">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="H22" s="32">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="H23" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="13">
+        <v>36.494999999999997</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" ref="G25:G38" si="1">PRODUCT(E25:F25)</f>
+        <v>36.494999999999997</v>
+      </c>
+      <c r="H25" s="32">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="13">
+        <v>9.68</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="1"/>
+        <v>9.68</v>
+      </c>
+      <c r="H26" s="32">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="1"/>
+        <v>5.49</v>
+      </c>
+      <c r="H27" s="32">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13">
+        <v>15.99</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="1"/>
+        <v>15.99</v>
+      </c>
+      <c r="H28" s="32">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="13">
+        <v>10.58</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="1"/>
+        <v>10.58</v>
+      </c>
+      <c r="H29" s="32">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="13">
+        <v>13.95</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" si="1"/>
+        <v>27.9</v>
+      </c>
+      <c r="H30" s="32">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="13">
+        <v>22.22</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" si="1"/>
+        <v>22.22</v>
+      </c>
+      <c r="H31" s="14">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="13">
+        <v>7.98</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="31">
+        <f t="shared" si="1"/>
+        <v>7.98</v>
+      </c>
+      <c r="H32" s="32">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="13">
+        <v>2.99</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31">
+        <f t="shared" si="1"/>
+        <v>2.99</v>
+      </c>
+      <c r="H33" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="13">
+        <v>4.97</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <f t="shared" si="1"/>
+        <v>4.97</v>
+      </c>
+      <c r="H34" s="32">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="31">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="H35" s="32">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="13">
+        <v>11.99</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="31">
+        <f t="shared" si="1"/>
+        <v>11.99</v>
+      </c>
+      <c r="H36" s="32">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="13">
+        <v>6.98</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" s="31">
+        <f t="shared" si="1"/>
+        <v>27.92</v>
+      </c>
+      <c r="H37" s="32">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="13">
+        <v>5.99</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" si="1"/>
+        <v>5.99</v>
+      </c>
+      <c r="H38" s="32">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1.49</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="31">
+        <f>PRODUCT(E43:F43)</f>
+        <v>1.49</v>
+      </c>
+      <c r="H43" s="14">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="13">
+        <v>15.99</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="31">
+        <f>PRODUCT(E46:F46)</f>
+        <v>15.99</v>
+      </c>
+      <c r="H46" s="14">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="13">
+        <v>99</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="31">
+        <f>PRODUCT(E47:F47)</f>
+        <v>99</v>
+      </c>
+      <c r="H47" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="13">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="31">
+        <f>PRODUCT(E48:F48)</f>
+        <v>50</v>
+      </c>
+      <c r="H48" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="13">
+        <v>324.99</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="31">
+        <f>PRODUCT(E49:F49)</f>
+        <v>324.99</v>
+      </c>
+      <c r="H49" s="14">
+        <v>324.99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="13">
+        <v>520</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="31">
+        <f>PRODUCT(E50:F50)</f>
+        <v>520</v>
+      </c>
+      <c r="H50" s="14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="13">
+        <v>499</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="31">
+        <f>PRODUCT(E52:F52)</f>
+        <v>499</v>
+      </c>
+      <c r="H52" s="32">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="13">
+        <v>43.19</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="31">
+        <f>PRODUCT(E53:F53)</f>
+        <v>43.19</v>
+      </c>
+      <c r="H53" s="32">
+        <v>43.19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="13">
+        <v>20.99</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="31">
+        <f>PRODUCT(E54:F54)</f>
+        <v>20.99</v>
+      </c>
+      <c r="H54" s="32">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="13">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" s="31">
+        <f>PRODUCT(E57:F57)</f>
+        <v>6.99</v>
+      </c>
+      <c r="H57" s="32">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="26">
+        <v>9.99</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <f>PRODUCT(E59:F59)</f>
+        <v>9.99</v>
+      </c>
+      <c r="H59" s="34">
+        <v>9.99</v>
+      </c>
+      <c r="J59" s="28"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="26">
+        <v>6.99</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="31">
+        <f>PRODUCT(E60:F60)</f>
+        <v>6.99</v>
+      </c>
+      <c r="H60" s="34">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="26">
+        <v>2.66</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="31">
+        <f>PRODUCT(E61:F61)</f>
+        <v>2.66</v>
+      </c>
+      <c r="H61" s="34">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E63" s="13">
+        <v>7.99</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" s="31">
+        <f>PRODUCT(E63:F63)</f>
+        <v>31.96</v>
+      </c>
+      <c r="H63" s="34">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="13">
+        <v>7.49</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" s="31">
+        <f>PRODUCT(E64:F64)</f>
+        <v>29.96</v>
+      </c>
+      <c r="H64" s="32">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="30"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66" s="31">
+        <f>PRODUCT(E66:F66)</f>
+        <v>1.32</v>
+      </c>
+      <c r="H66" s="32">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
+      <c r="G67" s="35">
+        <f>PRODUCT(E67:F67)</f>
+        <v>0.6</v>
+      </c>
+      <c r="H67" s="36">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G68" s="38">
+        <f>SUM(G3:G67)</f>
+        <v>1907.5870000000002</v>
+      </c>
+      <c r="H68" s="38">
+        <f>SUM(H3:H67)</f>
+        <v>2186.8399999999988</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D47" r:id="rId1" xr:uid="{C80B1ABA-F92C-4495-8AD0-7C85BE666F4B}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{6631738A-0005-417A-98E1-9ED009128324}"/>
+    <hyperlink ref="D22" r:id="rId3" xr:uid="{31586811-31D6-4EB2-9B08-932D3A8AFA90}"/>
+    <hyperlink ref="D63" r:id="rId4" xr:uid="{E2A44EC5-5B74-4097-BE61-990304236C8A}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{AB632DD9-588E-43EC-B848-252B522441AC}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{D463D192-58FD-43C3-9533-4E1CD4E2CBF0}"/>
+    <hyperlink ref="D52" r:id="rId7" xr:uid="{28B03C9B-EA5B-4408-9DAC-852E42946942}"/>
+    <hyperlink ref="D50" r:id="rId8" xr:uid="{B71AADAF-49E7-44AF-BAEC-3AA5266A67B5}"/>
+    <hyperlink ref="D46" r:id="rId9" xr:uid="{B516453C-EDD8-4573-867E-779CE8AB2982}"/>
+    <hyperlink ref="D61" r:id="rId10" xr:uid="{AFE4DB56-5A20-4DDA-99C7-445D0B1F44AA}"/>
+    <hyperlink ref="D64" r:id="rId11" xr:uid="{BB827153-EBB8-45BE-A776-15DE8BC15B3B}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{D82452C6-454B-4379-9916-ABAE2CB9E940}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{2D09B7D6-AB10-4A99-8019-756AE9C394F7}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{1380DB04-1814-4C11-9EF0-805F6AF8B684}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{D0B7452A-D8B8-479E-9671-FFF336C442C5}"/>
+    <hyperlink ref="D9" r:id="rId16" xr:uid="{36A17729-C6F0-489D-A12C-70D46C0B8C9C}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{B876DE14-24D4-4C2F-B9AA-46AA5F628863}"/>
+    <hyperlink ref="D13" r:id="rId18" xr:uid="{F095D2C5-62F8-456A-8378-E2AF49DCABDA}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{DB22D1F3-843D-44E3-B7A6-3E436A8BE3A0}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{5D7C59A5-ADD8-46DA-A71B-B40DAE4168A3}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{03CAAB42-B943-4648-875C-328884265CD8}"/>
+    <hyperlink ref="D17" r:id="rId22" xr:uid="{B4C3B883-0BAB-40F0-9739-8512E1DE1F10}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{C934559F-8656-4B7C-80BC-7375192192D4}"/>
+    <hyperlink ref="D19" r:id="rId24" xr:uid="{10673825-A603-4D68-8298-80573440364B}"/>
+    <hyperlink ref="D21" r:id="rId25" xr:uid="{97430B6C-3DF3-4A78-A687-E5D5D379FE93}"/>
+    <hyperlink ref="D23" r:id="rId26" xr:uid="{BFBDC5B4-0ABF-4192-AF76-B3EF02961FE1}"/>
+    <hyperlink ref="D25" r:id="rId27" xr:uid="{767F49B5-3725-4081-AC2B-5084E1DDDB2D}"/>
+    <hyperlink ref="D26" r:id="rId28" xr:uid="{0825DD16-0786-4C97-B1BD-08A65C2F1D7B}"/>
+    <hyperlink ref="D27" r:id="rId29" xr:uid="{8764134D-B4BE-44B4-B3EC-6175603D7C53}"/>
+    <hyperlink ref="D33" r:id="rId30" xr:uid="{2E45FD04-40B2-4534-B79A-AAD55C388DBE}"/>
+    <hyperlink ref="D35" r:id="rId31" xr:uid="{DE201625-21A1-438A-85E9-3D5E893F2C46}"/>
+    <hyperlink ref="D32" r:id="rId32" xr:uid="{1AFDBE0D-D979-47D2-9D68-88E0B1A4EE38}"/>
+    <hyperlink ref="D5" r:id="rId33" xr:uid="{EEEE0A1F-9A7E-4A97-AF7D-A282C052E54A}"/>
+    <hyperlink ref="D30" r:id="rId34" xr:uid="{D4915A59-45E8-48A5-80C0-13D9A0D104E3}"/>
+    <hyperlink ref="D20" r:id="rId35" xr:uid="{C55DF089-6B3F-43B4-AF49-1E0223D7ABF2}"/>
+    <hyperlink ref="D36" r:id="rId36" xr:uid="{79DFDED1-3178-4F81-9540-E9F6BCAF13A7}"/>
+    <hyperlink ref="D37" r:id="rId37" xr:uid="{D62FB603-D699-4B5C-AC85-D6F69041DE0A}"/>
+    <hyperlink ref="D38" r:id="rId38" xr:uid="{E907DFD1-78B5-4D31-8449-0FDC949BB05B}"/>
+    <hyperlink ref="D43" r:id="rId39" xr:uid="{988F088D-7847-47F3-901C-2BA70307210C}"/>
+    <hyperlink ref="D67" r:id="rId40" xr:uid="{64F00D12-1C59-4CAA-BB1F-EC86228A9363}"/>
+    <hyperlink ref="D34" r:id="rId41" xr:uid="{D18E55D6-680C-4C60-961B-54F40EC6CEDA}"/>
+    <hyperlink ref="D57" r:id="rId42" xr:uid="{B348F3B3-4717-4273-AE10-2A7047DE7428}"/>
+    <hyperlink ref="D53" r:id="rId43" xr:uid="{029E7087-7C0C-4DD1-817B-4F62584C01DB}"/>
+    <hyperlink ref="D54" r:id="rId44" xr:uid="{464F1B1E-4FBA-4064-A89C-90AC877F92E1}"/>
+    <hyperlink ref="D8" r:id="rId45" xr:uid="{F4D0647F-5B3B-4581-A26D-E63AB2A5913A}"/>
+    <hyperlink ref="D49" r:id="rId46" xr:uid="{7B7F67D2-C6D0-4770-B213-B1636C6C47C1}"/>
+    <hyperlink ref="D48" r:id="rId47" xr:uid="{E7976A35-0C70-459C-807A-B39097C9F455}"/>
+    <hyperlink ref="D31" r:id="rId48" xr:uid="{5858E4AE-8689-4240-B86E-955EBB7DA087}"/>
+    <hyperlink ref="C31" r:id="rId49" xr:uid="{32E8093F-8C4C-4ACD-A8E0-CC17C9C85EF2}"/>
+    <hyperlink ref="D66" r:id="rId50" xr:uid="{568FC5A3-18BE-45C8-9D8F-45ED0F9C2B35}"/>
+    <hyperlink ref="D60" r:id="rId51" xr:uid="{164DBD9D-F94E-4752-93EF-F6C12B2B3CD7}"/>
+    <hyperlink ref="D59" r:id="rId52" xr:uid="{3A5F3C52-0CB0-4106-ABBA-034B333953AD}"/>
+    <hyperlink ref="C4" r:id="rId53" xr:uid="{28FFCF9D-D37E-4132-96FD-76E1AD54F1CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId54"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="47.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
+      <c r="D4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F4">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="5">
+        <v>116</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="13">
         <v>1.29</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="13">
+        <f>PRODUCT(E5:F5)</f>
+        <v>5.16</v>
+      </c>
+      <c r="H5" s="14">
         <v>12.99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="13">
         <v>0.99</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="13">
+        <f t="shared" ref="G6:G63" si="0">PRODUCT(E6:F6)</f>
+        <v>9.9</v>
+      </c>
+      <c r="H6" s="14">
         <v>9.99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>123</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5">
+        <v>118</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13">
         <v>0.09</v>
       </c>
       <c r="F7">
         <v>36</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="H7" s="14">
         <v>7.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="5">
+        <v>119</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="13">
         <v>0.09</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="H8" s="14">
         <v>10.19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="5">
+        <v>120</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="13">
         <v>0.2</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H9" s="14">
         <v>8.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="5">
+        <v>75</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="H10" s="14">
         <v>7.49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>123</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="5">
+        <v>121</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13">
         <v>0.09</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H11" s="14">
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>123</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="5">
+        <v>122</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="13">
         <v>0.08</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="H12" s="14">
         <v>8.99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="13">
         <v>0.09</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="H13" s="14">
         <v>8.49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>123</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="5">
+        <v>124</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="13">
         <v>0.11</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14" s="14">
         <v>9.99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>123</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="5">
+        <v>125</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13">
         <v>0.1</v>
       </c>
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="14">
         <v>9.49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>107</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="5">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="13">
         <v>0.09</v>
       </c>
       <c r="F16">
         <v>56</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>5.04</v>
+      </c>
+      <c r="H16" s="14">
         <v>8.49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="13">
         <v>0.04</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H17" s="14">
         <v>4.51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>107</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="5">
+        <v>105</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="13">
         <v>0.06</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="H18" s="14">
         <v>6.06</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="5">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="13">
         <v>0.08</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="H19" s="14">
         <v>8.06</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="13">
         <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
         <v>9.99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="5">
+        <v>73</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="13">
         <v>0.99</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="H23" s="14">
         <v>3.99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1.59</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>1.59</v>
+      </c>
+      <c r="H24" s="14">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="13">
+        <v>36.494999999999997</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <f>PRODUCT(E26:F26)</f>
+        <v>36.494999999999997</v>
+      </c>
+      <c r="H26" s="32">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="13">
+        <v>9.68</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>9.68</v>
+      </c>
+      <c r="H27" s="14">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5.49</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>5.49</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2.33</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>2.33</v>
+      </c>
+      <c r="H29" s="14">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
         <v>112</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="13">
+        <v>10.58</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>10.58</v>
+      </c>
+      <c r="H30" s="14">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="H31" s="14">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="13">
+        <v>6.99</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="H32" s="14">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1.59</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>74.989999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="5">
-        <v>9.68</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="5">
-        <v>5.49</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1.49</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
+      <c r="H33" s="14">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="13">
+        <v>2.99</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="31">
+        <f>PRODUCT(E34:F34)</f>
+        <v>2.99</v>
+      </c>
+      <c r="H34" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="13">
+        <v>2.99</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="31">
+        <f>PRODUCT(E35:F35)</f>
+        <v>2.99</v>
+      </c>
+      <c r="H35" s="32">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2.33</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D36" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10.58</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="5">
-        <v>7.8</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1.49</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="5">
-        <v>7.98</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1.49</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>8.99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E36" s="13">
+        <v>4.97</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>4.97</v>
+      </c>
+      <c r="H36" s="14">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="5">
-        <v>4.97</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="13">
         <v>0.15</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="14">
         <v>8.98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="5">
+        <v>136</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="13">
         <v>11.99</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
         <v>11.99</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>117</v>
+      <c r="H38" s="14">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="5">
+        <v>113</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="13">
         <v>6.98</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="13">
+        <f t="shared" si="0"/>
         <v>27.92</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>118</v>
+      <c r="H39" s="14">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="5">
+        <v>114</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="13">
         <v>6.49</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="13">
+        <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="H40" s="14">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+      <c r="H41" s="14">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="5">
-        <v>6.9</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="13">
+        <v>15.99</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="0"/>
+        <v>15.99</v>
+      </c>
+      <c r="H47" s="14">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="13">
         <v>99</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="5">
-        <v>15.99</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" s="5">
-        <v>15.99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H48" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="5">
-        <v>99</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="13">
         <v>25</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="13">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="H49" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="13">
+        <v>149</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="H51" s="14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
         <v>65</v>
       </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="D52" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="13">
+        <v>6.66</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="0"/>
+        <v>6.66</v>
+      </c>
+      <c r="H52" s="14">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="5">
-        <v>149</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="5">
-        <v>6.66</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>72</v>
       </c>
-      <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" t="s">
-        <v>74</v>
-      </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>71</v>
+      <c r="G56" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="5">
+        <v>138</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="13">
         <v>9.99</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="13">
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="H57" s="14">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
         <v>93</v>
       </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="D59" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="13">
         <v>7.4</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="13">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+      <c r="H59" s="14">
         <v>29.6</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
         <v>94</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="E60" s="13">
         <v>7.99</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="13">
+        <f t="shared" si="0"/>
+        <v>15.98</v>
+      </c>
+      <c r="H60" s="15">
         <v>31.96</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="5">
+        <v>145</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="13">
         <v>7.49</v>
       </c>
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="13">
+        <f t="shared" si="0"/>
+        <v>7.49</v>
+      </c>
+      <c r="H61" s="14">
         <v>14.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="5">
+      <c r="B63" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="19">
         <v>0.11</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F63" s="17">
+        <v>12</v>
+      </c>
+      <c r="G63" s="13">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+      <c r="H63" s="20">
         <v>12.99</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E64"/>
-      <c r="F64" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="F64" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="27">
         <f>SUM(G2:G63)</f>
-        <v>814.82000000000028</v>
+        <v>553.32500000000005</v>
+      </c>
+      <c r="H64" s="25">
+        <f>SUM(H2:H63)</f>
+        <v>813.83000000000027</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D48" r:id="rId1" xr:uid="{56F30C84-B7F1-4E93-85C2-BCDAAF4AC8FA}"/>
@@ -2237,221 +4455,250 @@
     <hyperlink ref="D31" r:id="rId44" xr:uid="{38C41AEE-FBC8-4AC1-88B8-93BDDC6413AC}"/>
     <hyperlink ref="D60" r:id="rId45" xr:uid="{937019C6-AB5B-4941-BEEA-EC82790E3175}"/>
     <hyperlink ref="D46" r:id="rId46" xr:uid="{3563BC31-6C00-4D73-8D90-D8B33820718A}"/>
+    <hyperlink ref="C33" r:id="rId47" xr:uid="{EC1A2854-44C0-476A-8092-3C1B0A50E3A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId48"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4757F-091B-44B9-BD90-495A1AFC14CD}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>92</v>
+      <c r="H2" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="5">
+        <v>140</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="13">
         <v>28.91</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="13">
+        <f>PRODUCT(E4:F4)</f>
         <v>115.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="14">
+        <v>115.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13">
+        <v>10.99</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" ref="G7" si="0">PRODUCT(E7:F7)</f>
+        <v>10.99</v>
+      </c>
+      <c r="H7" s="14">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10.99</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11"/>
-      <c r="F11" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="27">
         <f>SUM(G2:G10)</f>
         <v>126.63</v>
       </c>
+      <c r="H11" s="21">
+        <f>SUM(H2:H10)</f>
+        <v>126.63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{DF4D9567-75C0-4C31-98E0-31FD7D36D1F9}"/>
